--- a/study1_result2.xlsx
+++ b/study1_result2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,295 +434,292 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>subsets</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>F_val</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>dfb</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dfw</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>p_val</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>partial_eta2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>cohens_f</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>post-hoc mean chain</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT Models</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPT Models</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
           <t>One-way ANOVA</t>
         </is>
       </c>
+      <c r="C2" t="n">
+        <v>49.42430435394559</v>
+      </c>
       <c r="D2" t="n">
-        <v>49.42430435394559</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1530</v>
       </c>
       <c r="F2" t="n">
-        <v>1530</v>
+        <v>1.736046289662906e-30</v>
       </c>
       <c r="G2" t="n">
-        <v>1.736046289662906e-30</v>
+        <v>0.08834851108412878</v>
       </c>
       <c r="H2" t="n">
-        <v>0.08834851108412878</v>
-      </c>
-      <c r="I2" t="n">
         <v>0.3113043537986755</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>gpt35 (M=0.17) &gt; {gpt-4o (M=0.13), gpt4o1120 (M=0.12)} &gt; gpt4.1 (M=0.11)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LLaMA Models</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LLaMA Models</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>Welch ANOVA</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>208.742594258215</v>
+      </c>
       <c r="D3" t="n">
-        <v>208.742594258215</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>694.451279319851</v>
       </c>
       <c r="F3" t="n">
-        <v>694.451279319851</v>
+        <v>1.032329071340544e-71</v>
       </c>
       <c r="G3" t="n">
-        <v>1.032329071340544e-71</v>
+        <v>0.2328559089168889</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2328559089168889</v>
-      </c>
-      <c r="I3" t="n">
         <v>0.5509410842586708</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>llama3_8b (M=0.22) &gt; llama3_70b (M=0.13) &gt; llama4 (M=0.10)</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Qwen Models</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qwen Models</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
           <t>Welch ANOVA</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>56.73556293326528</v>
+      </c>
       <c r="D4" t="n">
-        <v>56.73556293326528</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>604.0557488660905</v>
       </c>
       <c r="F4" t="n">
-        <v>604.0557488660905</v>
+        <v>1.827060513932095e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>1.827060513932095e-13</v>
+        <v>0.06615447905363217</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06615447905363217</v>
-      </c>
-      <c r="I4" t="n">
         <v>0.2661595826556824</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>qwen3 (M=0.29) &gt; qwen2.5 (M=0.24)</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>O3 Levels</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>O3 Levels</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
           <t>One-way ANOVA</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>6.441180125441455</v>
+      </c>
       <c r="D5" t="n">
-        <v>6.441180125441455</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="F5" t="n">
-        <v>192</v>
+        <v>0.001961008031582205</v>
       </c>
       <c r="G5" t="n">
-        <v>0.001961008031582205</v>
+        <v>0.06287686375297598</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06287686375297598</v>
-      </c>
-      <c r="I5" t="n">
         <v>0.2590282345743062</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>{o3-high (M=0.22), o3-medium (M=0.22)} &gt; o3-low (M=0.19)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GPT-5 Levels</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GPT-5 Levels</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>One-way ANOVA</t>
         </is>
       </c>
+      <c r="C6" t="n">
+        <v>0.1239994914346374</v>
+      </c>
       <c r="D6" t="n">
-        <v>0.1239994914346374</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>192</v>
       </c>
       <c r="F6" t="n">
-        <v>192</v>
+        <v>0.883450975566302</v>
       </c>
       <c r="G6" t="n">
-        <v>0.883450975566302</v>
+        <v>0.001289995132232161</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001289995132232161</v>
-      </c>
-      <c r="I6" t="n">
         <v>0.03593969072085633</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>{gpt5-medium (M=0.20), gpt5-high (M=0.20), gpt5-low (M=0.20)}</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>R1 and V3</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R1 and V3</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
           <t>Welch ANOVA</t>
         </is>
       </c>
+      <c r="C7" t="n">
+        <v>441.569331112235</v>
+      </c>
       <c r="D7" t="n">
-        <v>441.569331112235</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>704.091349896911</v>
       </c>
       <c r="F7" t="n">
-        <v>704.091349896911</v>
+        <v>1.786750294768808e-76</v>
       </c>
       <c r="G7" t="n">
-        <v>1.786750294768808e-76</v>
+        <v>0.2660740463124911</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2660740463124911</v>
-      </c>
-      <c r="I7" t="n">
         <v>0.6021090212332485</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>r1 (M=0.22) &gt; v3 (M=0.13)</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Distill Models</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Distill Models</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
           <t>Welch ANOVA</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>275.8219205096635</v>
+      </c>
       <c r="D8" t="n">
-        <v>275.8219205096635</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>731.8286360167958</v>
       </c>
       <c r="F8" t="n">
-        <v>731.8286360167958</v>
+        <v>8.388247563897566e-53</v>
       </c>
       <c r="G8" t="n">
-        <v>8.388247563897566e-53</v>
+        <v>0.2098333371067164</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2098333371067164</v>
-      </c>
-      <c r="I8" t="n">
         <v>0.5153210610496216</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>r1llama (M=0.22) &gt; llama3_70b (M=0.13)</t>
         </is>
